--- a/laporan/laporan_keuangan_2025-02-03.xlsx
+++ b/laporan/laporan_keuangan_2025-02-03.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,19 +618,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-02-03 17:40:36</t>
+          <t>2025-02-03 17:44:07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:04:01</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>2000</v>
       </c>
       <c r="H4" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -645,53 +645,6 @@
       <c r="K4" t="inlineStr">
         <is>
           <t>./capture/keluar/6CFX94LN9BM1.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>PCARMF5WXU87</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>C 3402 DFA</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>45691.73677083333</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Reza Ramdan Permana</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>./capture/masuk/PCARMF5WXU87.png</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t> </t>
         </is>
       </c>
     </row>
@@ -734,7 +687,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rp 8,000.0</t>
+          <t>Rp 8,000</t>
         </is>
       </c>
     </row>
@@ -746,7 +699,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rp 62,000.0</t>
+          <t>Rp 107,000</t>
         </is>
       </c>
     </row>
@@ -758,7 +711,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rp 8,000.0</t>
+          <t>Rp 8,000</t>
         </is>
       </c>
     </row>
@@ -770,7 +723,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Delapan ribu koma nol Rupiah</t>
+          <t>Delapan ribu Rupiah</t>
         </is>
       </c>
     </row>
